--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_153.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_153.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,668 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2425876010781671</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj', 'F:maj/C']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'G/5', 'D']]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A'], ['F:min/C', 'C:7', 'F:min'], ['F:min/G#', 'A#:min', 'F:min/G#']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(61.48, 63.58)]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(19.708503, 25.501882)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:01:14.900000', '0:01:26.120000'), ('0:00:43.680000', '0:00:45.800000'), ('0:01:37.760000', '0:01:49.380000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:04:11.500000', '0:04:15.380000'), ('0:00:24.180000', '0:00:27.660000'), ('0:00:09.240000', '0:00:12.560000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.3166666666666667</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.98, 15.9)]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>[('0:00:17.380000', '0:00:31.860000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.560000', '0:00:06.300000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1130952380952381</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
-        </is>
+          <t>isophonics_108</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1383928571428572</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#', 'B', 'E'], ['E', 'B', 'E']]</t>
+          <t>[['E', 'A', 'D'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(188.26, 192.26), (0.78, 19.18)]</t>
+          <t>[['D', 'G', 'C'], ['D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(29.008095, 34.615714), (16.701519, 23.528185)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:20.776621', '0:00:32.769727'), ('0:00:01.829138', '0:00:15.586961')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:01:29.739000', '0:01:44.707000'), ('0:00:00.279000', '0:00:16.531000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1554817275747508</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'C:7', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(2.56, 17.24)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.31, 23.575)]</t>
+          <t>[('0:00:06.760000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:16.520000', '0:00:25.400000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_216</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2358870967741936</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
-        </is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1641025641025641</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A#:min/C#', 'F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(54.18, 61.46)]</t>
+          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(28.009637, 33.826235)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>[('0:00:43.380000', '0:00:45.800000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:16.720000', '0:00:26.460000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1459276018099548</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'E'], ['A', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.75</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'E'], ['A', 'E', 'A']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(16.585419, 21.24102), (0.440395, 7.142059)]</t>
+          <t>[['C#', 'F#/5', 'C#']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(90.185647, 97.395443), (91.834264, 98.974002)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
+          <t>[('0:00:31.469410', '0:01:58.925813')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1806020066889632</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(3.1, 5.58)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(118.18, 123.04)]</t>
+          <t>[('0:00:01.600000', '0:00:12.540000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:24.860000', '0:00:45.460000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2259615384615385</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(83.2, 91.14)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(12.14, 20.02)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_97</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_124</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3611111111111111</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[['F', 'Bb', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(69.36, 73.2)]</t>
+          <t>[('0:01:00.040000', '0:01:10.960000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:15.124263', '0:00:21.811609')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_282</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1416666666666667</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F/5', 'Eb/5', 'Bb'], ['Eb', 'Bb', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_190</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B', 'A', 'E'], ['A', 'E', 'B']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.324217, 10.040952), (29.719863, 35.722222)]</t>
+          <t>[['D#:(3,b5,b7)/G', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A', 'G#:maj', 'D#:(3,b5,b7)/A']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.268067, 8.504874), (3.071405, 11.233219)]</t>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3Am0IbOxmvlSXro7N5iSfZ</t>
+          <t>[('0:00:41', '0:00:45.320000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj'], ['D#:maj', 'G#:maj', 'D#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_147</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3676470588235294</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(42.08, 57.88), (118.4, 121.72)]</t>
+          <t>[['E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.12, 61.36), (58.4, 60.68)]</t>
+          <t>[('0:00:57.480000', '0:01:08.700000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.435000', '0:00:34.866000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_271</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1882352941176471</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'E/5', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['E/5', 'E/#4', 'E/4']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(61.881201, 65.886643)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(0.440395, 4.837819)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:20.080000', '0:00:23.800000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.3506493506493507</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(64.3, 65.72)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(19.14, 22.24)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:02:28.100000', '0:02:32.600000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.3794871794871795</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_78</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(33.0, 48.22)]</t>
+          <t>[('0:00:53.120000', '0:01:14.300000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_15</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1958333333333333</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C', 'C', 'F', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A/b3', 'A/3', 'D', 'A']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(64.514625, 87.246961)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(65.369945, 71.679931)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_30</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_73</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(24.26, 27.2)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(61.44, 64.22)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
